--- a/DataSource/excel/storyTrigger.xlsx
+++ b/DataSource/excel/storyTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="9740" yWindow="820" windowWidth="23880" windowHeight="19320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="storyTrigger.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Yujie Liu</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,74 +56,6 @@
           </rPr>
           <t>触发地点：0：任意城市， 其他城市ID，用分号隔开
 如果以感叹号开头，表示什么城市除外 如：!;1;2;3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yujie Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：无要求， 前置剧情， 用分号隔开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yujie Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任意，无要求，其他用分号隔开</t>
         </r>
       </text>
     </comment>
@@ -147,7 +79,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+0</t>
         </r>
         <r>
           <rPr>
@@ -157,7 +89,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>触发的月份，用分号隔开</t>
+          <t>：无要求， 前置剧情， 用分号隔开</t>
         </r>
       </text>
     </comment>
@@ -181,7 +113,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+0:</t>
         </r>
         <r>
           <rPr>
@@ -191,7 +123,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>日期，用分号隔开</t>
+          <t>任意，无要求，其他用分号隔开</t>
         </r>
       </text>
     </comment>
@@ -205,19 +137,27 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Yujie Liu:
+          <t>Yujie Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>某年的事情</t>
+          <t>触发的月份，用分号隔开</t>
         </r>
       </text>
     </comment>
@@ -251,11 +191,37 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>最低要求</t>
+          <t>日期，用分号隔开</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yujie Liu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>某年的事情</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,11 +251,45 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>某些船员在船上，用分号隔开</t>
+          <t>最低要求</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yujie Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>某些船员在船上，用分号隔开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>storyId</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>cityId</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>heroId</t>
   </si>
 </sst>
 </file>
@@ -782,72 +788,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -865,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -886,10 +898,16 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -897,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -930,13 +948,19 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1000</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -944,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -968,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -977,9 +1001,15 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/storyTrigger.xlsx
+++ b/DataSource/excel/storyTrigger.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="820" windowWidth="23880" windowHeight="19320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="storyTrigger.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>storyId</t>
   </si>
@@ -392,13 +392,16 @@
   </si>
   <si>
     <t>heroId</t>
+  </si>
+  <si>
+    <t>npcNotInTeam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +437,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,13 +477,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,20 +822,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" ht="16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,20 +875,23 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -895,19 +932,22 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
       <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -954,13 +994,16 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1007,14 +1050,186 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1000</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/DataSource/excel/storyTrigger.xlsx
+++ b/DataSource/excel/storyTrigger.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="storyTrigger.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -497,6 +505,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -825,17 +838,18 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -947,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1231,10 +1245,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>